--- a/Design and Execution/TestCasesWithFixes.xlsx
+++ b/Design and Execution/TestCasesWithFixes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismael\Desktop\Tecnologia\SpeedUp Tech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismael\Desktop\Tecnologia\SpeedUp Tech\Repositorios Pet-Store\Repository-PetStore-Design and execution\Design and Execution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973BB2D6-92D4-4B3D-8895-32712D301F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5A3D85-B076-4CAE-9729-9650748C4027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="230">
   <si>
     <t>Identificador</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Estado </t>
-  </si>
-  <si>
-    <t>Entrada</t>
   </si>
   <si>
     <r>
@@ -556,9 +553,6 @@
     <t>Adicionar una imagen de una mascota mediante un método POST</t>
   </si>
   <si>
-    <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST</t>
-  </si>
-  <si>
     <t>Actualizar la información de una mascota para que se publique en la tienda con la información correcta mediante un método PUT</t>
   </si>
   <si>
@@ -571,19 +565,10 @@
     <t>1. Tener configurados los Metodos HTTP, entre ellos el POST     2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                  4. Tener identificados los tipos de mascotas con un número</t>
   </si>
   <si>
-    <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud POST e ingresar una dirección con la siguiente estructura en el campo POST: URL/pet                          3. En el body opción raw configurar la estructura de envío con los datos de entrada en formato JSON                              4. Presionar el botón SEND.</t>
-  </si>
-  <si>
-    <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud PUT e ingresar una dirección con la siguiente estructura en el campo PUT: URL/pet                          3. En el body opción raw configurar la estructura de envío con los datos de entrada en formato JSON                              4. Presionar el botón SEND.</t>
-  </si>
-  <si>
     <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud GET e ingresar una dirección con la siguiente estructura en el campo GET: url/pet/findByStatus                                                   3. Presionar el botón SEND.</t>
   </si>
   <si>
     <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud GET e ingresar una dirección con la siguiente estructura en el campo GET: url/pet/{petId}                                                   3. Presionar el botón SEND.</t>
-  </si>
-  <si>
-    <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud DELETE e ingresar una dirección con la siguiente estructura en el campo DELETE: url/pet/{petId}                                                   3. Presionar el botón SEND.</t>
   </si>
   <si>
     <t>Mostrar un status code 200 con la información de la mascota actualizada</t>
@@ -684,12 +669,6 @@
 }</t>
   </si>
   <si>
-    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                           3. Tener el PATH de la API funcionando                                4. Tener toda la información que se va a ingresar en el campo Body-raw de POSTMAN</t>
-  </si>
-  <si>
-    <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud POST e ingresar una dirección con la siguiente estructura en el campo del PATH: URL/pet                                            3. En el body opción raw configurar la estructura de envío con los datos de entrada en formato JSON                              4. Presionar el botón SEND.</t>
-  </si>
-  <si>
     <t>Mostrar un status code 201 con la información de la mascota creada de la siguiente manera:   {
     "id": 6,
     "category": {
@@ -708,9 +687,6 @@
     ],
     "status": "available"
 }</t>
-  </si>
-  <si>
-    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                           3. Tener el PATH de la API funcionando                                4. Tener la información que se va a ingresar en el campo Body-raw de POSTMAN</t>
   </si>
   <si>
     <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con un status no valido</t>
@@ -811,12 +787,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Put. (La respuesta generada en el Postman es de Status 500 error del servidor)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Input.(La respuesta generada en el Postman es de Status 200 Ok)                        </t>
-  </si>
-  <si>
     <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con el id de la categoría como String</t>
   </si>
   <si>
@@ -913,9 +883,6 @@
   "status": "available"
 }</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Put. (La respuesta generada en el Postman es de Status 200 Ok)    </t>
   </si>
   <si>
     <r>
@@ -1101,9 +1068,6 @@
     <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con el id del tags de la mascota como un String.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Put. (La respuesta generada en el Postman es de Status 500 Error del servidor)    </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1189,9 +1153,6 @@
     <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con el name del tags de la mascota como un número.</t>
   </si>
   <si>
-    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de PUT                               3. Tener el PATH de la API funcionando                                4. Tener la información que se va a ingresar en el campo Body-raw de POSTMAN</t>
-  </si>
-  <si>
     <t>{
   "id": 0,
   "category": {
@@ -1262,13 +1223,6 @@
     <t>Adicionar una nueva mascota con sólo un objeto vacío mediante un método POST</t>
   </si>
   <si>
-    <t>Mostrar un status code 405 con la siguiente información: Invalid Input (La respuesta generada en el Postman no debería decir Status 200 porque no hay datos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-Mostrar un Status code 400 con el siguiente mensaje: Invalid ID supplied                              </t>
-  </si>
-  <si>
     <t>Actualizar la información de una mascota para que se publique en la tienda con el id de la categoría de la mascota de tipo String</t>
   </si>
   <si>
@@ -1310,10 +1264,6 @@
   "status": "available"
 }</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-Mostrar un Status code 400 con el siguiente mensaje: Invalid ID supplied (El postman nos muestra un Status Code 500 Error del servidor)                         </t>
   </si>
   <si>
     <t>Actualizar la información de una mascota para que se publique en la tienda con el nombre de la categoría de la mascota de tipo entero.</t>
@@ -1438,48 +1388,6 @@
     <t>Actualizar la información de una mascota para que se publique en la tienda con el nombre de la mascota de tipo entero.</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-Mostrar un Status code 405 con el siguiente mensaje: Validation Exception (El postman nos muestra un Status Code 200 Ok:                          {
-    "id": 1,
-    "category": {
-        "id": 1,
-        "name": "String"
-    },
-    "name": "28885",
-    "photoUrls": [
-        "string"
-    ],
-    "tags": [
-        {
-            "id": 0,
-            "name": "string"
-        }
-    ],
-    "status": "available"
-})                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-Mostrar un Status code 405 con el siguiente mensaje: Validation Exception (El postman nos muestra un Status Code 200 Ok: {
-    "id": 1,
-    "category": {
-        "id": 1,
-        "name": "2698"
-    },
-    "name": "doggie",
-    "photoUrls": [
-        "string"
-    ],
-    "tags": [
-        {
-            "id": 0,
-            "name": "string"
-        }
-    ],
-    "status": "available"
-})                          </t>
-  </si>
-  <si>
     <t>Actualizar la información de una mascota para que se publique en la tienda con el photoUrls de la mascota de tipo entero.</t>
   </si>
   <si>
@@ -1539,27 +1447,6 @@
   "status": "available"
 }</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-Mostrar un Status code 405 con el siguiente mensaje: Validation Exception (El postman nos muestra un Status Code 200 Ok:                          {
-    "id": 1,
-    "category": {
-        "id": 1,
-        "name": "String"
-    },
-    "name": "String",
-    "photoUrls": [
-        "12345"
-    ],
-    "tags": [
-        {
-            "id": 0,
-            "name": "string"
-        }
-    ],
-    "status": "available"
-})                         </t>
   </si>
   <si>
     <r>
@@ -1720,26 +1607,6 @@
     </r>
   </si>
   <si>
-    <t>Mostrar un status code 405 con la siguiente respuesta:Invalid input. (El postman nos arroja un Status 200 con la siguiente info:{
-    "id": 1,
-    "category": {
-        "id": 1,
-        "name": "String"
-    },
-    "name": "String",
-    "photoUrls": [
-        "String"
-    ],
-    "tags": [
-        {
-            "id": 1,
-            "name": "69874"
-        }
-    ],
-    "status": "available"
-})</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">{
   "id": 1,
@@ -1819,7 +1686,596 @@
     <t>Actualizar la información de una mascota para que se publique en la tienda con el status de la  mascota de tipo entero.</t>
   </si>
   <si>
-    <t>Mostrar un status code 405 con la siguiente respuesta:Invalid input. (El postman nos arroja un Status 200 con la siguiente info:{
+    <t>Actualizar la información de una mascota para que se publique en la tienda poniendo un objeto vacío en el body.</t>
+  </si>
+  <si>
+    <t>{
+}</t>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda ingresando números en vez de un objeto en el body.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. PetID del path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 1 (Correcto)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                           2. Name del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SFHR (Incorrecto)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                  3. Status del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Available (Correcto) </t>
+    </r>
+  </si>
+  <si>
+    <t>Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId incorrecto en el path y el Name y Status correctos en el formData</t>
+  </si>
+  <si>
+    <t>Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path, el Name incorrecto y el Status correcto en el formData</t>
+  </si>
+  <si>
+    <t>Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path, el Name correcto y el Status incorrecto en el formData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path y el Name y el Status correctos en la opción de Params </t>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                               3. Tener el PATH de la API funcionando                                4. Tener la información que se va a ingresar en el campo de Params de POSTMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId incorrecto en el path y el Name y el Status correctos en la opción de Params </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nota:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No aparecen varios ID porque las mascotas están ocultas</t>
+    </r>
+  </si>
+  <si>
+    <t>CP_Add30</t>
+  </si>
+  <si>
+    <t>CP_Add31</t>
+  </si>
+  <si>
+    <t>CP_Add32</t>
+  </si>
+  <si>
+    <t>CP_Add33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path, el Name incorrecto y el Status correcto en la opción de Params </t>
+  </si>
+  <si>
+    <t>CP_Add34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path, el Name correcto y el Status incorrecto en la opción de Params </t>
+  </si>
+  <si>
+    <t>CP_Add35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST dejando el PetId vacio en el path, el Name vacio y el Status vacio en la opción de Params </t>
+  </si>
+  <si>
+    <t>CP_Add36</t>
+  </si>
+  <si>
+    <t>CP_Add37</t>
+  </si>
+  <si>
+    <t>CP_Add38</t>
+  </si>
+  <si>
+    <t>CP_Add39</t>
+  </si>
+  <si>
+    <t>CP_Add40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar mascotas de la tienda para depurar la información ingresando un id correcto en el path y un api_key correcto tipo string en el header </t>
+  </si>
+  <si>
+    <t>CP_Add41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar mascotas de la tienda para depurar la información ingresando un id correcto en el path y un api_key incorrecto tipo entero en el header </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 404 con el mensaje: 
+Pet not Found. (El postman nos arroja un status 200 ok con la siguiente info: {
+    "code": 200,
+    "type": "unknown",
+    "message": "1"
+})                             </t>
+  </si>
+  <si>
+    <t>CP_Add42</t>
+  </si>
+  <si>
+    <t>CP_Add43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar mascotas de la tienda para depurar la información no ingresando un id en el path e ingresando un api_key en el header </t>
+  </si>
+  <si>
+    <t>La respuesta generada en Postman fue de un Status 500 Server Error</t>
+  </si>
+  <si>
+    <t>El caso de prueba no es válido porque no tiene la URL por lo tanto no puedo realizar las pruebas.</t>
+  </si>
+  <si>
+    <t>Revisión Entre Pares (Revisor: Miguel Hugo)</t>
+  </si>
+  <si>
+    <t>Lenguaje Gherkin</t>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                                          3. Tener el PATH de la API funcionando                                                    4. Tener toda la información que se va a ingresar en el campo Body-raw de POSTMAN</t>
+  </si>
+  <si>
+    <t>Datos de Entrada</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Ingresar a POSTMAN                                  2. Abrir una solicitud PUT e ingresar una dirección con la siguiente estructura en el campo PUT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://petstore.swagger.io/pet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                            3. En el body opción raw configurar la estructura de envío con los datos de entrada en formato JSON                              4. Presionar el botón SEND.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Ingresar a POSTMAN                                  2. Abrir una solicitud POST e ingresar una dirección con la siguiente estructura en el campo del PATH: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://petstore.swagger.io/pet   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                          3. En el body opción raw configurar la estructura de envío con los datos de entrada en formato JSON que se encuentran en la columna anterior.                              4. Presionar el botón SEND.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de PUT                                              3. Tener el PATH de la API funcionando                                                      4. Tener la información que se va a ingresar en el campo Body-raw de POSTMAN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Ingresar a POSTMAN                                  2. Abrir una solicitud PUT e ingresar una dirección con la siguiente estructura en el campo PUT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://petstore.swagger.io/pet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                            3. En el body opción raw configurar la estructura de envío con los datos de entrada en formato JSON que se encuentran en la columna anterior                              4. Presionar el botón SEND.</t>
+    </r>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda dejando vacío el body.</t>
+  </si>
+  <si>
+    <r>
+      <t>Mostrar un status code 405 con la siguiente respuesta:Invalid input.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (El postman nos arroja un Status 415 con la siguiente info:{
+    "code": 415,
+    "type": "unknown",
+    "message": "com.sun.jersey.api.MessageException: A message body reader for Java class io.swagger.sample.model.Pet, and Java type class io.swagger.sample.model.Pet, and MIME media type application/octet-stream was not found.\nThe registered message body readers compatible with the MIME media type are:\n*/* -&gt;\n  com.sun.jersey.core.impl.provider.entity.FormProvider\n  com.sun.jersey.core.impl.provider.entity.StringProvider\n  com.sun.jersey.core.impl.provider.entity.ByteArrayProvider\n  com.sun.jersey.core.impl.provider.entity.FileProvider\n  com.sun.jersey.core.impl.provider.entity.InputStreamProvider\n  com.sun.jersey.core.impl.provider.entity.DataSourceProvider\n  com.sun.jersey.core.impl.provider.entity.XMLJAXBElementProvider$General\n  com.sun.jersey.core.impl.provider.entity.ReaderProvider\n  com.sun.jersey.core.impl.provider.entity.DocumentProvider\n  com.sun.jersey.core.impl.provider.entity.SourceProvider$StreamSourceReader\n  com.sun.jersey.core.impl.provider.entity.SourceProvider$SAXSourceReader\n  com.sun.jersey.core.impl.provider.entity.SourceProvider$DOMSourceReader\n  com.sun.jersey.json.impl.provider.entity.JSONJAXBElementProvider$General\n  com.sun.jersey.json.impl.provider.entity.JSONArrayProvider$General\n  com.sun.jersey.json.impl.provider.entity.JSONObjectProvider$General\n  com.fasterxml.jackson.jaxrs.json.JacksonJsonProvider\n  com.sun.jersey.core.impl.provider.entity.XMLRootElementProvider$General\n  com.sun.jersey.core.impl.provider.entity.XMLListElementProvider$General\n  com.sun.jersey.core.impl.provider.entity.XMLRootObjectProvider$General\n  com.sun.jersey.core.impl.provider.entity.EntityHolderReader\n  com.sun.jersey.json.impl.provider.entity.JSONRootElementProvider$General\n  com.sun.jersey.json.impl.provider.entity.JSONListElementProvider$General}</t>
+    </r>
+  </si>
+  <si>
+    <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con datos de entrada validos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mostrar un status code 405 con la siguiente información: Invalid Input </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(La respuesta generada en el Postman no debería decir Status 200 porque no hay datos)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mostrar un status code 405 con el siguiente mensaje: Invalid Input.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(La respuesta generada en el Postman es de Status 200 Ok)                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Put. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(La respuesta generada en el Postman es de Status 500 error del servidor)    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Put. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(La respuesta generada en el Postman es de Status 200 Ok)    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mostrar un status code 405 con el siguiente mensaje: Invalid Put. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">La respuesta generada en el Postman es de Status 200 Ok)    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mostrar un status code 405 con el siguiente mensaje: Invalid Put.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (La respuesta generada en el Postman es de Status 500 Error del servidor)    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mostrar un status code 405 con el siguiente mensaje: Invalid Put.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (La respuesta generada en el Postman es de Status 200 Ok)    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">	
+Mostrar un Status code 400 con el siguiente mensaje: Invalid ID supplied  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(El postman nos muestra un Status Code 500 Error del servidor)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">	
+Mostrar un Status code 400 con el siguiente mensaje: Invalid ID supplied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (El postman nos muestra un Status Code 500 Error del servidor)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                       </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">	
+Mostrar un Status code 405 con el siguiente mensaje: Validation Exception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (El postman nos muestra un Status Code 200 Ok: {
+    "id": 1,
+    "category": {
+        "id": 1,
+        "name": "2698"
+    },
+    "name": "doggie",
+    "photoUrls": [
+        "string"
+    ],
+    "tags": [
+        {
+            "id": 0,
+            "name": "string"
+        }
+    ],
+    "status": "available"
+})                          </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">	
+Mostrar un Status code 405 con el siguiente mensaje: Validation Exception </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(El postman nos muestra un Status Code 200 Ok:                          {
+    "id": 1,
+    "category": {
+        "id": 1,
+        "name": "String"
+    },
+    "name": "28885",
+    "photoUrls": [
+        "string"
+    ],
+    "tags": [
+        {
+            "id": 0,
+            "name": "string"
+        }
+    ],
+    "status": "available"
+})                         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">	
+Mostrar un Status code 405 con el siguiente mensaje: Validation Exception </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(El postman nos muestra un Status Code 200 Ok:                          {
+    "id": 1,
+    "category": {
+        "id": 1,
+        "name": "String"
+    },
+    "name": "String",
+    "photoUrls": [
+        "12345"
+    ],
+    "tags": [
+        {
+            "id": 0,
+            "name": "string"
+        }
+    ],
+    "status": "available"
+})                         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">	
+Mostrar un Status code 400 con el siguiente mensaje: Invalid ID supplied </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(El postman nos muestra un Status Code 500 Error del servidor)                         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mostrar un status code 405 con la siguiente respuesta:Invalid input.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (El postman nos arroja un Status 200 con la siguiente info:{
+    "id": 1,
+    "category": {
+        "id": 1,
+        "name": "String"
+    },
+    "name": "String",
+    "photoUrls": [
+        "String"
+    ],
+    "tags": [
+        {
+            "id": 1,
+            "name": "69874"
+        }
+    ],
+    "status": "available"
+})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mostrar un status code 405 con la siguiente respuesta:Invalid input. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(El postman nos arroja un Status 200 con la siguiente info:{
     "id": 1,
     "category": {
         "id": 1,
@@ -1837,42 +2293,89 @@
     ],
     "status": "25694"
 })</t>
+    </r>
   </si>
   <si>
-    <t>Actualizar la información de una mascota para que se publique en la tienda poniendo un objeto vacío en el body.</t>
-  </si>
-  <si>
-    <t>{
-}</t>
-  </si>
-  <si>
-    <t>Mostrar un status code 405 con la siguiente respuesta:Invalid input. (El postman nos arroja un Status 200 con la siguiente info:{
+    <r>
+      <t xml:space="preserve">Mostrar un status code 405 con la siguiente respuesta:Invalid input. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(El postman nos arroja un Status 200 con la siguiente info:{
     "id": 9223372036854048942,
     "photoUrls": [],
     "tags": []
 })</t>
+    </r>
   </si>
   <si>
-    <t>Actualizar la información de una mascota para que se publique en la tienda dejando vacío en el body.</t>
-  </si>
-  <si>
-    <t>Mostrar un status code 405 con la siguiente respuesta:Invalid input. (El postman nos arroja un Status 415 con la siguiente info:{
-    "code": 415,
-    "type": "unknown",
-    "message": "com.sun.jersey.api.MessageException: A message body reader for Java class io.swagger.sample.model.Pet, and Java type class io.swagger.sample.model.Pet, and MIME media type application/octet-stream was not found.\nThe registered message body readers compatible with the MIME media type are:\n*/* -&gt;\n  com.sun.jersey.core.impl.provider.entity.FormProvider\n  com.sun.jersey.core.impl.provider.entity.StringProvider\n  com.sun.jersey.core.impl.provider.entity.ByteArrayProvider\n  com.sun.jersey.core.impl.provider.entity.FileProvider\n  com.sun.jersey.core.impl.provider.entity.InputStreamProvider\n  com.sun.jersey.core.impl.provider.entity.DataSourceProvider\n  com.sun.jersey.core.impl.provider.entity.XMLJAXBElementProvider$General\n  com.sun.jersey.core.impl.provider.entity.ReaderProvider\n  com.sun.jersey.core.impl.provider.entity.DocumentProvider\n  com.sun.jersey.core.impl.provider.entity.SourceProvider$StreamSourceReader\n  com.sun.jersey.core.impl.provider.entity.SourceProvider$SAXSourceReader\n  com.sun.jersey.core.impl.provider.entity.SourceProvider$DOMSourceReader\n  com.sun.jersey.json.impl.provider.entity.JSONJAXBElementProvider$General\n  com.sun.jersey.json.impl.provider.entity.JSONArrayProvider$General\n  com.sun.jersey.json.impl.provider.entity.JSONObjectProvider$General\n  com.fasterxml.jackson.jaxrs.json.JacksonJsonProvider\n  com.sun.jersey.core.impl.provider.entity.XMLRootElementProvider$General\n  com.sun.jersey.core.impl.provider.entity.XMLListElementProvider$General\n  com.sun.jersey.core.impl.provider.entity.XMLRootObjectProvider$General\n  com.sun.jersey.core.impl.provider.entity.EntityHolderReader\n  com.sun.jersey.json.impl.provider.entity.JSONRootElementProvider$General\n  com.sun.jersey.json.impl.provider.entity.JSONListElementProvider$General}</t>
-  </si>
-  <si>
-    <t>Actualizar la información de una mascota para que se publique en la tienda ingresando números en vez de un objeto en el body.</t>
-  </si>
-  <si>
-    <t>Mostrar un status code 405 con la siguiente respuesta:Invalid input. (El postman nos arroja un Status 500 con la siguiente info:{
+    <r>
+      <t xml:space="preserve">Mostrar un status code 405 con la siguiente respuesta:Invalid input. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(El postman nos arroja un Status 500 con la siguiente info:{
     "code": 500,
     "type": "unknown",
     "message": "something bad happened"
 })</t>
+    </r>
   </si>
   <si>
-    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                               3. Tener el PATH de la API funcionando                                4. Tener la información que se va a ingresar en el campo Body-formData de POSTMAN</t>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                                          3. Tener el PATH de la API funcionando                                                   4. Tener la información que se va a ingresar en el campo Body-formData de POSTMAN</t>
+  </si>
+  <si>
+    <r>
+      <t>Mostrar un status code 200 con la información de la mascota actualizada.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (El postman nos arroja una Status 415 Unsupported Media Type con el mensaje de:                                            &lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;apiResponse&gt;
+    &lt;type&gt;unknown&lt;/type&gt;
+&lt;/apiResponse&gt;)               </t>
+    </r>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                                                  3. Tener el PATH de la API funcionando                                                           4. Tener la información que se va a ingresar en el campo Body-formData de POSTMAN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Ingresar a POSTMAN                                      2. Abrir una solicitud POST e ingresar una dirección con la siguiente estructura en el campo POST: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://petstore.swagger.io/pet/{petID}  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                  3. En el body opción formData escribir el Name y el Status.                                                  4. Presionar el botón SEND.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1949,7 +2452,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                   3. Status del formData: </t>
+      <t xml:space="preserve">                                                         3. Status del formData: </t>
     </r>
     <r>
       <rPr>
@@ -1962,13 +2465,21 @@
     </r>
   </si>
   <si>
-    <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud POST e ingresar una dirección con la siguiente estructura en el campo POST: URL/pet/{petID}                                   3. En el body opción formData escribir el Name y el Status.                              4. Presionar el botón SEND.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar un status code 200 con la información de la mascota actualizada. (El postman nos arroja una Status 415 Unsupported Media Type con el mensaje de:                                            &lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+    <r>
+      <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Input. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(El postman nos arroja una Status 415 Unsupported Media Type con el mensaje de:                                            &lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
 &lt;apiResponse&gt;
     &lt;type&gt;unknown&lt;/type&gt;
 &lt;/apiResponse&gt;)               </t>
+    </r>
   </si>
   <si>
     <r>
@@ -2027,7 +2538,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                   3. Status del formData: </t>
+      <t xml:space="preserve">                                                       3. Status del formData: </t>
     </r>
     <r>
       <rPr>
@@ -2040,72 +2551,21 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Input. (El postman nos arroja una Status 415 Unsupported Media Type con el mensaje de:                                            &lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
-&lt;apiResponse&gt;
-    &lt;type&gt;unknown&lt;/type&gt;
-&lt;/apiResponse&gt;)               </t>
-  </si>
-  <si>
     <r>
-      <t>1. PetID del path</t>
+      <t>Mostrar un status code 405 con el siguiente mensaje: Invalid Input.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <color theme="5"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>: 1 (Correcto)</t>
+      <t xml:space="preserve"> (El postman nos arroja una Status 415 Unsupported Media Type con el mensaje de:                                            &lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;apiResponse&gt;
+    &lt;type&gt;unknown&lt;/type&gt;
+&lt;/apiResponse&gt;)               </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           2. Name del formData: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SFHR (Incorrecto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                  3. Status del formData: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Available (Correcto) </t>
-    </r>
-  </si>
-  <si>
-    <t>Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path y el Name y Status correctos en el formData</t>
   </si>
   <si>
     <r>
@@ -2154,7 +2614,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                      3. Status del formData: </t>
+      <t xml:space="preserve">                                                            3. Status del formData: </t>
     </r>
     <r>
       <rPr>
@@ -2167,16 +2627,54 @@
     </r>
   </si>
   <si>
-    <t>Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId incorrecto en el path y el Name y Status correctos en el formData</t>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                                                     3. Tener el PATH de la API funcionando                                                        4. Tener la información que se va a ingresar en el campo de Params de POSTMAN</t>
   </si>
   <si>
-    <t>Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path, el Name incorrecto y el Status correcto en el formData</t>
+    <r>
+      <t xml:space="preserve">Mostrar un status code 201. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(El postman nos arroja un status 200 con el mensaje ok)            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
   </si>
   <si>
-    <t>Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path, el Name correcto y el Status incorrecto en el formData</t>
+    <t>[Backend] Actualizar una mascota en la tienda ingresando datos en el campo Params</t>
   </si>
   <si>
-    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path y el Name y el Status correctos en la opción de Params </t>
+    <t>Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path y el Name y Status correctos en el campo formData de POSTMAN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mostrar un status code 405 con el mensaje de Invalid Input. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(El postman nos arroja un status 404 con la siguiente info: {
+    "code": 404,
+    "type": "unknown",
+    "message": "java.lang.NumberFormatException: For input string: \"f\""
+})               </t>
+    </r>
   </si>
   <si>
     <r>
@@ -2207,7 +2705,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                           2. Name del formData: </t>
+      <t xml:space="preserve">                           2. Name del Params: </t>
     </r>
     <r>
       <rPr>
@@ -2225,7 +2723,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                      3. Status del formData: </t>
+      <t xml:space="preserve">                                                     3. Status del Params: </t>
     </r>
     <r>
       <rPr>
@@ -2238,55 +2736,7 @@
     </r>
   </si>
   <si>
-    <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud POST e ingresar una dirección con la siguiente estructura en el campo POST: URL/pet/{petID}                                   3. En el body opción Params escribir el Name y el Status.                              4. Presionar el botón SEND.</t>
-  </si>
-  <si>
-    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                               3. Tener el PATH de la API funcionando                                4. Tener la información que se va a ingresar en el campo de Params de POSTMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar un status code 201. (El postman nos arroja un status 200 con el mensaje ok)               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId incorrecto en el path y el Name y el Status correctos en la opción de Params </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar un status code 405 con el mensaje de Invalid Input. (El postman nos arroja un status 404 con la siguiente info: {
-    "code": 404,
-    "type": "unknown",
-    "message": "java.lang.NumberFormatException: For input string: \"f\""
-})               </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nota:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> No aparecen varios ID porque las mascotas están ocultas</t>
-    </r>
-  </si>
-  <si>
-    <t>CP_Add30</t>
-  </si>
-  <si>
-    <t>CP_Add31</t>
-  </si>
-  <si>
-    <t>CP_Add32</t>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                                             3. Tener el PATH de la API funcionando                                                           4. Tener la información que se va a ingresar en el campo de Params de POSTMAN</t>
   </si>
   <si>
     <r>
@@ -2317,7 +2767,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                           2. Name del formData: </t>
+      <t xml:space="preserve">                           2. Name del Params: </t>
     </r>
     <r>
       <rPr>
@@ -2335,7 +2785,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                      3. Status del formData: </t>
+      <t xml:space="preserve">                                                              3. Status del Params: </t>
     </r>
     <r>
       <rPr>
@@ -2348,50 +2798,17 @@
     </r>
   </si>
   <si>
-    <t>CP_Add33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path, el Name incorrecto y el Status correcto en la opción de Params </t>
-  </si>
-  <si>
     <r>
-      <t>1. PetID del path</t>
+      <t xml:space="preserve">Mostrar un status code 405 con el mensaje de Invalid Input. </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <color theme="5"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">(El postman nos arroja un status 200 Ok)         </t>
     </r>
     <r>
       <rPr>
@@ -2400,44 +2817,34 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                           2. Name del formData: </t>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>No entendí los pasos a seguir, ya que me arroja un status de 415 Unsupported Media Type, también en el apartado de "Entrada" estás indicando un Status del formData y en los pasos estás indicando el apartado de Params</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Poppins"/>
       </rPr>
-      <t xml:space="preserve">111 (Incorrecto) </t>
+      <t xml:space="preserve"> (Corregido)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Al igual que en los anteriores, no entiendo bien los pasos, y hace referencia a direfentes apartados, haciendo que postman me modifique el URL/pet/{petID}   añadiendo los valores que ingreso en la tabla de Params  </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Poppins"/>
       </rPr>
-      <t xml:space="preserve">                                      3. Status del formData: </t>
+      <t>(Corregido)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Available (Correcto) </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar un status code 405 con el mensaje de Invalid Input. (El postman nos arroja un status 200 Ok)               </t>
-  </si>
-  <si>
-    <t>CP_Add34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path, el Name correcto y el Status incorrecto en la opción de Params </t>
   </si>
   <si>
     <r>
@@ -2504,7 +2911,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                                      3. Status del formData: </t>
+      <t xml:space="preserve">                                                              3. Status del formData: </t>
     </r>
     <r>
       <rPr>
@@ -2517,10 +2924,27 @@
     </r>
   </si>
   <si>
-    <t>CP_Add35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST dejando el PetId vacio en el path, el Name vacio y el Status vacio en la opción de Params </t>
+    <r>
+      <t xml:space="preserve">1. Ingresar a POSTMAN                                         2. Abrir una solicitud POST e ingresar una dirección con la siguiente estructura en el campo POST: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://petstore.swagger.io/pet/{petID}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                       3. En el body opción Params escribir el Name y el Status.                                                      4. Presionar el botón SEND.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2551,7 +2975,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 1 (Correcto)   </t>
+      <t xml:space="preserve">  (Correcto)             </t>
     </r>
     <r>
       <rPr>
@@ -2591,32 +3015,89 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mostrar un status code 405 con el mensaje de Invalid Input. (El postman nos arroja un status 404 Not Found)               </t>
-  </si>
-  <si>
-    <t>CP_Add36</t>
-  </si>
-  <si>
-    <t>CP_Add37</t>
-  </si>
-  <si>
-    <t>CP_Add38</t>
-  </si>
-  <si>
-    <t>CP_Add39</t>
-  </si>
-  <si>
-    <t>CP_Add40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar mascotas de la tienda para depurar la información ingresando un id correcto en el path y un api_key correcto tipo string en el header </t>
-  </si>
-  <si>
-    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de DELETE                               3. Tener el PATH de la API funcionando                                4. Tener la información que se va a ingresar en el campo de Headers en el POSTMAN</t>
+    <r>
+      <t xml:space="preserve">Mostrar un status code 405 con el mensaje de Invalid Input. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(El postman nos arroja un status 404 Not Found)     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
   </si>
   <si>
     <r>
-      <t>1. PATH: {{URL}}/pet/</t>
+      <t xml:space="preserve">Mostrar un status code 405 con el mensaje de Invalid Input. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(El postman nos arroja un status 404 Not Found)    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aquí también, en el apartado de descripción está diciendo que se tiene que dejar el PetId vacío, pero en la columna "Entrada" el petId tiene el valor de 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>(Corregido)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Esta vez me arrojó un 404 Not Found (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>Corregido)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. PATH: https://petstore.swagger.io/pet/</t>
     </r>
     <r>
       <rPr>
@@ -2654,7 +3135,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">     2. Headers: Api_key: "pet 1" </t>
+      <t xml:space="preserve">                                                      2. Headers: Api_key: "pet 1" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Correcto)    </t>
     </r>
     <r>
       <rPr>
@@ -2663,7 +3154,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(Correcto)       </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -2676,21 +3167,68 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mostrar un status code 200 con el mensaje: Eliminando Mascota. (El postman nos arroja un status 200 con la siguiente info: {
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de DELETE                                              3. Tener el PATH de la API funcionando                                                          4. Tener la información que se va a ingresar en el campo de Headers en el POSTMAN</t>
+  </si>
+  <si>
+    <r>
+      <t>Mostrar un status code 200 con el mensaje: Eliminando Mascota.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (El postman nos arroja un status 200 con la siguiente info: {
     "code": 200,
     "type": "unknown",
     "message": "1"
 })                             </t>
-  </si>
-  <si>
-    <t>CP_Add41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar mascotas de la tienda para depurar la información ingresando un id correcto en el path y un api_key incorrecto tipo entero en el header </t>
+    </r>
   </si>
   <si>
     <r>
-      <t>1. PATH: {{URL}}/pet/</t>
+      <t xml:space="preserve">1. Ingresar a POSTMAN                                            2. Abrir una solicitud DELETE e ingresar una dirección con la siguiente estructura en el campo DELETE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://petstore.swagger.io/pet/{petID} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                      3. Presionar el botón SEND.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>El caso de prueba no es válido porque no tiene la URL por lo tanto no puedo realizar las pruebas.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>(Corregido)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de DELETE                                                 3. Tener el PATH de la API funcionando                                                               4. Tener la información que se va a ingresar en el campo de Headers en el POSTMAN</t>
+  </si>
+  <si>
+    <r>
+      <t>1. PATH:https://petstore.swagger.io/pet/</t>
     </r>
     <r>
       <rPr>
@@ -2718,7 +3256,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">    2. Headers: Api_key: </t>
+      <t xml:space="preserve">                                                 2. Headers: Api_key: </t>
     </r>
     <r>
       <rPr>
@@ -2749,22 +3287,154 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mostrar un status code 404 con el mensaje: 
-Pet not Found. (El postman nos arroja un status 200 ok con la siguiente info: {
-    "code": 200,
+    <r>
+      <t>Mostrar un status code 404 con el mensaje: 
+Pet not Found.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (El postman nos arroja un status 404 Pet Not Found con la siguiente info:{
+    "code": 404,
     "type": "unknown",
-    "message": "1"
+    "message": "java.lang.NumberFormatException: For input string: \"fg\""
 })                             </t>
-  </si>
-  <si>
-    <t>CP_Add42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar mascotas de la tienda para depurar la información ingresando un id correcto en el path y no ingresar un api_key en el header </t>
+    </r>
   </si>
   <si>
     <r>
-      <t>1. URL: url/pet/1</t>
+      <t xml:space="preserve">En esta parte postman me arrojó un status 404 Not Found </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>(Corregido)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>El postma me arroja un status 415 Unsupported Media Type,  también en la columna de "Entrada" estás indicando un Status del formData y en los pasos estás indicando el apartado de Params  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>Corregido)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>El caso de prueba no es válido porque no tiene la URL por lo tanto no puedo realizar las pruebas.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve"> (Corregido)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El caso de prueba no es válido porque no tiene la URL por lo tanto no puedo realizar las pruebas. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>(Corregido)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>El caso de prueba no es válido porque no tiene la URL por lo tanto no puedo realizar las pruebas.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>(Corregido)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>El caso de prueba no es válido porque no tiene la URL por lo tanto no puedo realizar las pruebas. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>Corregido)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de DELETE                                             3. Tener el PATH de la API funcionando                                                        4. Tener la información que se va a ingresar en el campo de Headers en el POSTMAN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Ingresar a POSTMAN                                            2. Abrir una solicitud DELETE e ingresar una dirección con la siguiente estructura en el campo DELETE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://petstore.swagger.io/pet/{petID} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                    3. Presionar el botón SEND.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Ingresar a POSTMAN                                         2. Abrir una solicitud DELETE e ingresar una dirección con la siguiente estructura en el campo DELETE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://petstore.swagger.io/pet/{petID} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                  3. Presionar el botón SEND.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.URL:https://petstore.swagger.io/pet/1</t>
     </r>
     <r>
       <rPr>
@@ -2791,7 +3461,25 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                   2. Headers: " " </t>
+      <t xml:space="preserve">                                                       2. Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Vacio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2813,14 +3501,68 @@
     </r>
   </si>
   <si>
-    <t>CP_Add43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar mascotas de la tienda para depurar la información no ingresando un id en el path e ingresando un api_key en el header </t>
+    <t xml:space="preserve">Eliminar mascotas de la tienda para depurar la información ingresando un id correcto en el path y dejar vacío el api_key en el header </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. URL: url/pet/  </t>
+      <t xml:space="preserve">En este también me arroja un status 404 Not Found, en la columna "Descripcion" cuando se refiere a "no ingresar un api_key en el header", ¿está diciendo que lo tengo que desactivar o eliminar? Porque en la columna de "Entrada" dejó unas " " entendiendo que está vacío, favor de entrar más a detalle. Porque sí es vacío quedaría así: Api_key: " " pero si es nulo estaría Api_key: (para que sea mejor, tendía que quitar en la columna "Entrada" el punto 2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>(Corregido)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de DELETE                                                 3. Tener el PATH de la API funcionando                                                            4. Tener la información que se va a ingresar en el campo de Headers en el POSTMAN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Ingresar a POSTMAN                                              2. Abrir una solicitud DELETE e ingresar una dirección con la siguiente estructura en el campo DELETE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://petstore.swagger.io/pet/{petID}  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                    3. Presionar el botón SEND.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. URL: https://petstore.swagger.io/pet/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12554487</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2838,7 +3580,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">                        2. Headers: Api_key: "pet 1" </t>
+      <t xml:space="preserve">                                                                 2. Headers: Api_key: "pet 1" </t>
     </r>
     <r>
       <rPr>
@@ -2852,50 +3594,40 @@
   </si>
   <si>
     <t xml:space="preserve">Mostrar un status code 400 con el mensaje: 
-Invalid ID supplied. (El postman nos arroja un status 405 Method Not Allow con la siguiente info:                                                                &lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
-&lt;apiResponse&gt;
-    &lt;type&gt;unknown&lt;/type&gt;
-&lt;/apiResponse&gt;)                             </t>
+Invalid ID supplied. (El postman nos arroja un status 400 Not Found)       </t>
   </si>
   <si>
-    <t>Miguel Hugo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisión Entre Pares </t>
-  </si>
-  <si>
-    <t>La respuesta generada en Postman fue de un Status 500 Server Error</t>
-  </si>
-  <si>
-    <t>No entendí los pasos a seguir, ya que me arroja un status de 415 Unsupported Media Type, también en el apartado de "Entrada" estás indicando un Status del formData y en los pasos estás indicando el apartado de Params</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al igual que en los anteriores, no entiendo bien los pasos, y hace referencia a direfentes apartados, haciendo que postman me modifique el URL/pet/{petID}   añadiendo los valores que ingreso en la tabla de Params </t>
-  </si>
-  <si>
-    <t>Esta vez me arrojó un 404 Not Found</t>
-  </si>
-  <si>
-    <t>Aquí también, en el apartado de descripción está diciendo que se tiene que dejar el PetId vacío, pero en la columna "Entrada" el petId tiene el valor de 1</t>
-  </si>
-  <si>
-    <t>En esta parte postman me arrojó un status 404 Not Found</t>
-  </si>
-  <si>
-    <t>El postma me arroja un status 415 Unsupported Media Type,  también en la columna de "Entrada" estás indicando un Status del formData y en los pasos estás indicando el apartado de Params</t>
-  </si>
-  <si>
-    <t>En este también me arroja un status 404 Not Found, en la columna "Descripcion" cuando se refiere a "no ingresar un api_key en el header", ¿está diciendo que lo tengo que desactivar o eliminar? Porque en la columna de "Entrada" dejó unas " " entendiendo que está vacío, favor de entrar más a detalle. Porque sí es vacío quedaría así: Api_key: " " pero si es nulo estaría Api_key: (para que sea mejor, tendía que quitar en la columna "Entrada" el punto 2)</t>
-  </si>
-  <si>
-    <t>El caso de prueba no es válido porque no tiene la URL por lo tanto no puedo realizar las pruebas.</t>
+    <t>Background:
+* url = https://petstore.swagger.io/v2
+Scenario Outline: add a pet to the store
+Given the path /pet
+And Method POST
+When the body-raw is {
+    "id": int,
+    "category": {
+        "id": int,
+        "name": "String"
+    },
+    "name": "String",
+    "photoUrls": [
+        "String"
+    ],
+    "tags": [
+        {
+            "id": int,
+            "name": "String"
+        }
+    ],
+    "status": "String"
+}
+Then status code 200.                                                                                                                                      Example:                                                                                                                                                                   |   id   |   id   |   name   |    name    |  photoUrls  |   id   |   name  |      status   |                                                            |  6   |    1    | "firulais" |  "firulais"  |  "imagen" |   2   | "firulais" | "available" |                                                                              |"hola"|"hola"|    2365   |   5689  |    5698   |"hola"|   5698   |     56985    |                                                                                                                                            ||</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2991,8 +3723,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3017,8 +3782,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3082,11 +3859,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3094,15 +4036,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3171,14 +4104,137 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3562,8 +4618,8 @@
   </sheetPr>
   <dimension ref="A1:AC1018"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3573,44 +4629,45 @@
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="6" width="33.28515625" customWidth="1"/>
     <col min="7" max="7" width="37.140625" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" customWidth="1"/>
+    <col min="8" max="8" width="110.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="36.5703125" customWidth="1"/>
+    <col min="17" max="17" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="F2" s="15" t="s">
-        <v>83</v>
+      <c r="F2" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="10">
         <v>44764</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="32"/>
+      <c r="G4" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>82</v>
+      <c r="D5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>63</v>
+      <c r="D6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
@@ -3645,90 +4702,90 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
+      <c r="K9" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="55"/>
+      <c r="M9" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
     </row>
     <row r="10" spans="1:29" ht="128.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>1</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="B10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>64</v>
+      <c r="I10" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -3751,35 +4808,35 @@
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29" ht="128.25" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="27">
+      <c r="A11" s="24">
         <v>2</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="B11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>64</v>
+      <c r="I11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -3802,35 +4859,35 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" ht="128.25" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="27">
+      <c r="A12" s="24">
         <v>3</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="B12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="21" t="s">
+      <c r="D12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>64</v>
+      <c r="H12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -3853,35 +4910,35 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="128.25" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="27">
+      <c r="A13" s="24">
         <v>4</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="B13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>64</v>
+      <c r="I13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3903,46 +4960,48 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="294" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="29">
+    <row r="14" spans="1:29" ht="408.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="26">
         <v>5</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="56"/>
+      <c r="M14" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="70"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3956,46 +5015,46 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="29">
+    <row r="15" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="26">
         <v>6</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" s="56"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="72"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4009,46 +5068,46 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="29">
+    <row r="16" spans="1:29" ht="386.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="26">
         <v>7</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="56"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="72"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4062,46 +5121,46 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="29">
+    <row r="17" spans="1:29" ht="329.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="26">
         <v>8</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="56"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="72"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4115,46 +5174,46 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="29">
+    <row r="18" spans="1:29" ht="256.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="26">
         <v>9</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" s="56"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="72"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4168,46 +5227,46 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="29">
+    <row r="19" spans="1:29" ht="256.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="26">
         <v>10</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="G19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="56"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="72"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -4221,46 +5280,46 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="29">
+    <row r="20" spans="1:29" ht="256.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="26">
         <v>11</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" s="56"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="72"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -4274,46 +5333,46 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="29">
+    <row r="21" spans="1:29" ht="256.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="26">
         <v>12</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" s="56"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="72"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -4327,46 +5386,46 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="29">
+    <row r="22" spans="1:29" ht="256.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="26">
         <v>13</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="56"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="72"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -4380,46 +5439,46 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="29">
+    <row r="23" spans="1:29" ht="256.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="37">
         <v>14</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="B23" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="L23" s="57"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="75"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -4433,46 +5492,46 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="29">
+    <row r="24" spans="1:29" ht="256.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="26">
         <v>15</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="16" t="s">
+      <c r="B24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="J24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L24" s="56"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="64"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -4486,46 +5545,46 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="29">
+    <row r="25" spans="1:29" ht="256.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="46">
         <v>16</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="B25" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="58"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="64"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -4539,46 +5598,46 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="29">
+    <row r="26" spans="1:29" ht="256.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="26">
         <v>17</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" s="56"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="64"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -4592,46 +5651,46 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" ht="313.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="29">
+    <row r="27" spans="1:29" ht="299.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="26">
         <v>18</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="B27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" s="56"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="64"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -4645,46 +5704,46 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" ht="327.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="29">
+    <row r="28" spans="1:29" ht="299.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="26">
         <v>19</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="B28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" s="56"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="64"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -4698,46 +5757,46 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" ht="327.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="29">
+    <row r="29" spans="1:29" ht="299.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="26">
         <v>20</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="G29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" s="56"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="64"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -4751,46 +5810,46 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="29">
+    <row r="30" spans="1:29" ht="256.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="26">
         <v>21</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="B30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" s="56"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="64"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -4804,46 +5863,46 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" ht="285" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="29">
+    <row r="31" spans="1:29" ht="270.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="26">
         <v>22</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
+      <c r="B31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" s="56"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="64"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -4857,46 +5916,46 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" ht="285" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="29">
+    <row r="32" spans="1:29" ht="270.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="26">
         <v>23</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="B32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" s="56"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="64"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -4910,46 +5969,46 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" ht="114" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="29">
+    <row r="33" spans="1:29" ht="177" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="26">
         <v>24</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="B33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" s="56"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="64"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -4963,44 +6022,44 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="29">
+    <row r="34" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="26">
         <v>25</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="B34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="L34" s="56"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="64"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -5014,46 +6073,46 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" ht="114" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="29">
+    <row r="35" spans="1:29" ht="128.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="26">
         <v>26</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="26">
+      <c r="B35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="23">
         <v>565</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="G35" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="L35" s="56"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="64"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -5067,99 +6126,99 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="29">
+    <row r="36" spans="1:29" s="45" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="37">
         <v>27</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="L36" s="57"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+    </row>
+    <row r="37" spans="1:29" ht="153.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="26">
+        <v>28</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-    </row>
-    <row r="37" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="29">
-        <v>28</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="C37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="L37" s="56"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="64"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -5173,46 +6232,46 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="29">
+    <row r="38" spans="1:29" ht="128.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="26">
         <v>29</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="B38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="L38" s="56"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="64"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -5226,46 +6285,46 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="29">
+    <row r="39" spans="1:29" ht="157.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="26">
         <v>30</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="B39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="L39" s="56"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="64"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -5279,46 +6338,46 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" ht="214.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="29">
+    <row r="40" spans="1:29" ht="214.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="26">
         <v>31</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="B40" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K40" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="L40" s="56"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="64"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -5333,45 +6392,45 @@
       <c r="AC40" s="1"/>
     </row>
     <row r="41" spans="1:29" ht="265.89999999999998" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="29">
+      <c r="A41" s="26">
         <v>32</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="B41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="L41" s="56"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="64"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -5385,46 +6444,46 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" ht="273" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="29">
+    <row r="42" spans="1:29" ht="273" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="26">
         <v>33</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="B42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="L42" s="56"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="64"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -5438,46 +6497,46 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" ht="142.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="29">
+    <row r="43" spans="1:29" ht="185.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="26">
         <v>34</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="31" t="s">
+      <c r="B43" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="64"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -5491,46 +6550,46 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" ht="175.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="29">
+    <row r="44" spans="1:29" ht="175.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="26">
         <v>35</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="B44" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="L44" s="56"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="64"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -5544,44 +6603,44 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" ht="114" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="29">
+    <row r="45" spans="1:29" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="26">
         <v>36</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" s="20" t="s">
+      <c r="B45" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="64"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -5595,44 +6654,44 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" ht="114" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="29">
+    <row r="46" spans="1:29" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="26">
         <v>37</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="19" t="s">
+      <c r="B46" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="I46" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="64"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -5646,44 +6705,44 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" ht="114" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="29">
+    <row r="47" spans="1:29" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="26">
         <v>38</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="8" t="s">
+      <c r="B47" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="I47" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="64"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -5697,44 +6756,44 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" ht="114" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="29">
+    <row r="48" spans="1:29" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="26">
         <v>39</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="B48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="64"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -5748,46 +6807,46 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="29">
+    <row r="49" spans="1:29" ht="128.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="26">
         <v>40</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="31" t="s">
+      <c r="B49" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="64"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -5801,46 +6860,46 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="29">
+    <row r="50" spans="1:29" ht="128.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="26">
         <v>41</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="B50" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K50" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="L50" s="56"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="64"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -5854,46 +6913,46 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="1:29" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="29">
+    <row r="51" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="26">
         <v>42</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="B51" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" s="56"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="64"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -5907,46 +6966,46 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="29">
+    <row r="52" spans="1:29" ht="128.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="26">
         <v>43</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="B52" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K52" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="L52" s="56"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="64"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -35907,8 +36966,79 @@
       <c r="AC1018" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="72">
+    <mergeCell ref="M14:Q23"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="M47:Q47"/>
+    <mergeCell ref="M48:Q48"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="M43:Q43"/>
+    <mergeCell ref="M44:Q44"/>
+    <mergeCell ref="M45:Q45"/>
+    <mergeCell ref="M46:Q46"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="M39:Q39"/>
+    <mergeCell ref="M40:Q40"/>
+    <mergeCell ref="M41:Q41"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
